--- a/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
+++ b/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DimChumHaul\Desktop\停如意所有文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DimChumHaul\Desktop\PCChageTermialV3.TingRUI\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C204CBF-0B3A-4401-A87E-F803F63D8BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2422A830-3EAC-4C33-A57B-62B5E0F43601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -346,29 +344,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -737,7 +735,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -746,7 +744,7 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
@@ -754,20 +752,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="11"/>
       <c r="E3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -776,7 +774,7 @@
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
@@ -784,23 +782,23 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -809,30 +807,30 @@
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -841,31 +839,31 @@
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -885,7 +883,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -894,19 +892,19 @@
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -924,11 +922,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E5:G7"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="D4:D5"/>
@@ -937,35 +930,14 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E8:F9"/>
     <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
+++ b/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DimChumHaul\Desktop\PCChageTermialV3.TingRUI\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2422A830-3EAC-4C33-A57B-62B5E0F43601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEAD6C6-6BED-4C2F-BAC4-963C91C23C93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,32 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免费时间X分钟，Y元/N分钟，时段满收费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费时间6分钟，2元/18分钟，时段满收费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无免费时间，2元/18分钟，时段满收费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无免费时间，Y元/N分钟，时段满收费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,11 +79,6 @@
   </si>
   <si>
     <t>无免费时间，第一时段（a：00：00-b：00:00)Y元/分钟；第二时段（c:00:00-d:00:00)Z元/N分钟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.时段满收费为北京特例。所谓时段满收费就是满足一个时段的收费时长才能收费。比如说说2元/15分钟，就是停车每15分钟收2元，停车如果不到15分钟不能收任何费用。比如一辆车停了14分钟就是0元。停到15分钟收2元。停到16-29分钟仍旧是2元。停到30分钟收取4元。
-2.说明内的字母所涉及的时间、金额均不固定，可能会有任何数值出现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,14 +151,6 @@
   </si>
   <si>
     <t>需要设置法定节假日和双周自动减免功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cube18p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(end-start) / cube * 单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,17 +315,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -706,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -722,84 +690,86 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
+      <c r="D2" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>3</v>
+    <row r="6" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -807,134 +777,100 @@
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="E5:G7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
+  <mergeCells count="11">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
+++ b/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DimChumHaul\Desktop\PCChageTermialV3.TingRUI\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEAD6C6-6BED-4C2F-BAC4-963C91C23C93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐收费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二段式潮汐收费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,11 +171,15 @@
     <t>~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">潮汐收费 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,14 +309,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -396,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,26 +423,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,23 +458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -703,7 +663,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -716,11 +676,11 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -728,15 +688,15 @@
         <v>4</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -746,15 +706,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
@@ -762,13 +722,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -778,19 +738,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -798,8 +758,8 @@
         <v>7</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
@@ -814,14 +774,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -831,11 +791,11 @@
         <v>19</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -849,13 +809,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
+++ b/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
@@ -120,18 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二段式收费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二段式潮汐收费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按次收费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多段式收费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,7 +160,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>二段式收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">潮汐收费 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按次收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段式潮汐收费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +205,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,9 +321,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -318,9 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -329,6 +341,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +658,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -663,7 +684,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -672,31 +693,31 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>22</v>
+      <c r="D2" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -705,30 +726,30 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -737,31 +758,31 @@
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -773,15 +794,15 @@
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
+      <c r="D8" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -790,32 +811,32 @@
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>25</v>
+      <c r="D9" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
+++ b/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
@@ -324,6 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,23 +336,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,7 +684,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -693,7 +693,7 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
@@ -701,23 +701,23 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -726,30 +726,30 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -758,31 +758,31 @@
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -794,7 +794,7 @@
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E8" t="s">
@@ -802,7 +802,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -811,19 +811,19 @@
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">

--- a/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
+++ b/Docs/【彭工】关于二段式收费和潮汐收费的原理性解释文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>二段式潮汐收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -813,6 +817,9 @@
       </c>
       <c r="D9" s="15" t="s">
         <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
